--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Rhodes_Hyperlinks.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Rhodes_Hyperlinks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Make call using tel scheme</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>validate1
@@ -97,7 +94,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -644,19 +640,19 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.7109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="44.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="44.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" thickBot="1">
@@ -712,17 +708,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
   </sheetData>
@@ -741,9 +735,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="22.85546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="false"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Rhodes_Hyperlinks.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Rhodes_Hyperlinks.xlsx
@@ -77,7 +77,7 @@
 };</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(3);
+    <t>wait(3);
 validate1;
 link_Click(hyperlinks_test_link);
 wait(3);
@@ -86,8 +86,7 @@
 wait(2);
 validate3;
 press_Key(Back);
-press_Key(Back);
-</t>
+press_Key(Back);</t>
   </si>
 </sst>
 </file>
@@ -640,7 +639,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
